--- a/Codelist Excel Files and Conversion Templates to XML/grp-aashtoM145.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/grp-aashtoM145.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AEB58A5-D254-FA4D-BD42-D92C96FAAED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D9B8D4F-6AB6-9542-883B-EFDA65EEEA3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -776,9 +776,6 @@
     <t>classificationSymbol</t>
   </si>
   <si>
-    <t>DIGGS Soil Classification Codelist Definitions for  AASHTO M 145 Group Symbols</t>
-  </si>
-  <si>
     <t>Group symbol codes as defined by the American Association of State Highway Transportation Officials (AASHTO M 145 or ASTM D 3282) for soils and soil-aggregate mixtures for highway construction purposes. These codes are used as values for the classificationCode property of the Lithology object.</t>
   </si>
   <si>
@@ -828,6 +825,9 @@
   </si>
   <si>
     <t>grp-aashtoM145</t>
+  </si>
+  <si>
+    <t>DIGGS Soil Classification Definitions for  AASHTO M 145 Group Symbols</t>
   </si>
 </sst>
 </file>
@@ -1558,7 +1558,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1602,13 +1602,13 @@
         <v>245</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>246</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -1674,20 +1674,20 @@
         <v/>
       </c>
       <c r="B2" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="15"/>
       <c r="G2" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>233</v>
@@ -1705,14 +1705,14 @@
         <v>234</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="15"/>
       <c r="G3" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>233</v>
@@ -1724,20 +1724,20 @@
         <v/>
       </c>
       <c r="B4" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="15"/>
       <c r="G4" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>233</v>
@@ -1755,14 +1755,14 @@
         <v>235</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="15"/>
       <c r="G5" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>233</v>
@@ -1780,14 +1780,14 @@
         <v>236</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="15"/>
       <c r="G6" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>233</v>
@@ -1805,14 +1805,14 @@
         <v>237</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>233</v>
@@ -1824,20 +1824,20 @@
         <v/>
       </c>
       <c r="B8" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>261</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>233</v>
@@ -1855,14 +1855,14 @@
         <v>238</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>233</v>
@@ -1928,7 +1928,7 @@
         <v/>
       </c>
       <c r="B3" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>244</v>
@@ -1976,7 +1976,7 @@
         <v/>
       </c>
       <c r="B7" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>244</v>
@@ -2000,7 +2000,7 @@
         <v/>
       </c>
       <c r="B9" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>244</v>

--- a/Codelist Excel Files and Conversion Templates to XML/grp-aashtoM145.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/grp-aashtoM145.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D9B8D4F-6AB6-9542-883B-EFDA65EEEA3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42DB5B96-B7DC-264F-A9F3-B15D2CA5FA42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20760" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DictionaryName" sheetId="3" r:id="rId1"/>
@@ -785,9 +785,6 @@
     <t>A-2</t>
   </si>
   <si>
-    <t>Fine beach sand or fine desert blow sand without silty or clay fines or with a very small amount of nonplastic silt. The group includes also streamdeposited mixtures of poorly graded fine sand and limited amounts of coarse sand and gravel.</t>
-  </si>
-  <si>
     <t>A nonplastic or moderately plastic silty soil usually having 75 percent or more passing the 75-μm (No. 200) sieve. The group also includes mixtures of fine silty soil and up to 64 percent of sand and gravel retained on 75-μm (No. 200) sieve.</t>
   </si>
   <si>
@@ -828,6 +825,9 @@
   </si>
   <si>
     <t>DIGGS Soil Classification Definitions for  AASHTO M 145 Group Symbols</t>
+  </si>
+  <si>
+    <t>Fine beach sand or fine desert blow sand without silty or clay fines or with a very small amount of nonplastic silt. The group includes also stream-deposited mixtures of poorly graded fine sand and limited amounts of coarse sand and gravel.</t>
   </si>
 </sst>
 </file>
@@ -1557,7 +1557,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -1602,10 +1602,10 @@
         <v>245</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>263</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>246</v>
@@ -1625,8 +1625,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1674,20 +1674,20 @@
         <v/>
       </c>
       <c r="B2" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>247</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="15"/>
       <c r="G2" s="14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>233</v>
@@ -1705,14 +1705,14 @@
         <v>234</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="15"/>
       <c r="G3" s="14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>233</v>
@@ -1724,20 +1724,20 @@
         <v/>
       </c>
       <c r="B4" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>248</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="15"/>
       <c r="G4" s="14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>233</v>
@@ -1755,14 +1755,14 @@
         <v>235</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="15"/>
       <c r="G5" s="14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>233</v>
@@ -1780,14 +1780,14 @@
         <v>236</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="15"/>
       <c r="G6" s="14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>233</v>
@@ -1805,14 +1805,14 @@
         <v>237</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>233</v>
@@ -1824,20 +1824,20 @@
         <v/>
       </c>
       <c r="B8" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>260</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>233</v>
@@ -1855,14 +1855,14 @@
         <v>238</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>233</v>
@@ -1928,7 +1928,7 @@
         <v/>
       </c>
       <c r="B3" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>244</v>
@@ -1976,7 +1976,7 @@
         <v/>
       </c>
       <c r="B7" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>244</v>
@@ -2000,7 +2000,7 @@
         <v/>
       </c>
       <c r="B9" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>244</v>

--- a/Codelist Excel Files and Conversion Templates to XML/grp-aashtoM145.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/grp-aashtoM145.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11214"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42DB5B96-B7DC-264F-A9F3-B15D2CA5FA42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18519A5-5F01-3742-A626-5BBB1FE29145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20760" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10940" yWindow="4180" windowWidth="35840" windowHeight="20760" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DictionaryName" sheetId="3" r:id="rId1"/>
@@ -770,9 +770,6 @@
     <t>a-8</t>
   </si>
   <si>
-    <t>//diggs:Lithology/diggs:classificationCode</t>
-  </si>
-  <si>
     <t>classificationSymbol</t>
   </si>
   <si>
@@ -828,6 +825,9 @@
   </si>
   <si>
     <t>Fine beach sand or fine desert blow sand without silty or clay fines or with a very small amount of nonplastic silt. The group includes also stream-deposited mixtures of poorly graded fine sand and limited amounts of coarse sand and gravel.</t>
+  </si>
+  <si>
+    <t>//diggs:Lithology/diggs:classificationSymbol</t>
   </si>
 </sst>
 </file>
@@ -1599,16 +1599,16 @@
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -1625,7 +1625,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -1674,20 +1674,20 @@
         <v/>
       </c>
       <c r="B2" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="15"/>
       <c r="G2" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>233</v>
@@ -1705,14 +1705,14 @@
         <v>234</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="15"/>
       <c r="G3" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>233</v>
@@ -1724,20 +1724,20 @@
         <v/>
       </c>
       <c r="B4" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="15"/>
       <c r="G4" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>233</v>
@@ -1755,14 +1755,14 @@
         <v>235</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="15"/>
       <c r="G5" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>233</v>
@@ -1780,14 +1780,14 @@
         <v>236</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="15"/>
       <c r="G6" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>233</v>
@@ -1805,14 +1805,14 @@
         <v>237</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>233</v>
@@ -1824,20 +1824,20 @@
         <v/>
       </c>
       <c r="B8" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>259</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>233</v>
@@ -1855,14 +1855,14 @@
         <v>238</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>233</v>
@@ -1883,9 +1883,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1919,7 +1919,7 @@
         <v>239</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1928,10 +1928,10 @@
         <v/>
       </c>
       <c r="B3" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1943,7 +1943,7 @@
         <v>240</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1955,7 +1955,7 @@
         <v>241</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1967,7 +1967,7 @@
         <v>242</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1976,10 +1976,10 @@
         <v/>
       </c>
       <c r="B7" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1991,7 +1991,7 @@
         <v>243</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2000,10 +2000,10 @@
         <v/>
       </c>
       <c r="B9" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
